--- a/Admin.gigade/Template/SiteStatistics/站臺訪問量統計匯入範本.xlsx
+++ b/Admin.gigade/Template/SiteStatistics/站臺訪問量統計匯入範本.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -470,7 +470,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -686,6 +686,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>"YAHOO,GOOGLE,FB"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Admin.gigade/Template/SiteStatistics/站臺訪問量統計匯入範本.xlsx
+++ b/Admin.gigade/Template/SiteStatistics/站臺訪問量統計匯入範本.xlsx
@@ -22,19 +22,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>曝光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>點擊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>點閱率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>費用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際轉換</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAHOO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曝光數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>點閱數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -46,7 +62,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>會員數</t>
+      <t>新會員數</t>
     </r>
     <r>
       <rPr>
@@ -57,22 +73,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際轉換</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>廠商代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YAHOO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +470,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -483,28 +483,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -533,7 +533,7 @@
         <v>9185</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <v>5133</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -591,7 +591,7 @@
         <v>7405</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">

--- a/Admin.gigade/Template/SiteStatistics/站臺訪問量統計匯入範本.xlsx
+++ b/Admin.gigade/Template/SiteStatistics/站臺訪問量統計匯入範本.xlsx
@@ -470,12 +470,14 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -686,9 +688,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"YAHOO,GOOGLE,FB"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值必須介於0~2147483647的整數" sqref="H1:H1048576">
+      <formula1>0</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值必須介於0~2147483647的整數" sqref="B1:B1048576 C1:C1048576 F1:F1048576 G1:G1048576">
+      <formula1>0</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值介於0~100" sqref="D1:D1048576">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值必須介於0~999999999" sqref="E1:E1048576">
+      <formula1>0</formula1>
+      <formula2>999999999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
